--- a/csv/data.xlsx
+++ b/csv/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/470e288704938fe9/work/snipets/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\work\snipets\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{52499761-3EC5-4DEC-825E-8BC91856BDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85572C8B-EEFE-4469-9069-B2F7A2E3AA0E}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{52499761-3EC5-4DEC-825E-8BC91856BDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3CA7DD0F-61C6-4073-902C-E8688FD6A47A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{A624E51D-EFB9-47D4-9AB5-3BC049FB18F3}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{A624E51D-EFB9-47D4-9AB5-3BC049FB18F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>12345678901234567890</t>
+    <t>1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
